--- a/biology/Botanique/Érythrone_d'Amérique/Érythrone_d'Amérique.xlsx
+++ b/biology/Botanique/Érythrone_d'Amérique/Érythrone_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rythrone_d%27Am%C3%A9rique</t>
+          <t>Érythrone_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythronium americanum
 L'érythrone d'Amérique (Erythronium americanum) est une plante herbacée vivace à bulbe de la famille des Liliaceae.  On l'appelle aussi ail doux ou ail des ours bien qu'il ne soit pas du genre des Allium.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rythrone_d%27Am%C3%A9rique</t>
+          <t>Érythrone_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010) :
 Erythronium americanum Ker Gawl. (1808)
 Erythronium americanum subsp. americanum.
 Erythronium americanum subsp. harperi (W.Wolf) C.R.Parks &amp; Hardin (1963)</t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rythrone_d%27Am%C3%A9rique</t>
+          <t>Érythrone_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,16 +563,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Plante vivace à bulbe, elle mesure environ 30 cm de hauteur. Les feuilles basiliaires sont opposées, de couleur verte, tachetées de beige et de pourpre[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace à bulbe, elle mesure environ 30 cm de hauteur. Les feuilles basiliaires sont opposées, de couleur verte, tachetées de beige et de pourpre.
 			Feuille.
-Appareil reproducteur
-Les fleurs printanières solitaires sont jaunes et elles ont trois sépales et trois pétales[2],[3].
-			Érythrone d'Amérique. Mai 2020.
-			Erythronium americanum Ker-Gawl., Sainte-Anne-de-la-Pérade, Mauricie
-Confusions possible
-L'Érythrone d'Amérique ressemble à l'ail des bois (Allium tricoccum) et c'est pourquoi on l'appelle aussi l'ail doux, bien que le goût soit très différent.
-Enfin, à la fois le nom «Ail des bois» et «Ail des ours» désigne une espèce différente en Europe, l'Allium ursinum.
 </t>
         </is>
       </c>
@@ -569,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rythrone_d%27Am%C3%A9rique</t>
+          <t>Érythrone_d'Amérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,12 +596,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La germination est lente ; il faut compter dix ans avant que la plante ne produise ses premières fleurs et graines[4].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs printanières solitaires sont jaunes et elles ont trois sépales et trois pétales,.
+			Érythrone d'Amérique. Mai 2020.
+			Erythronium americanum Ker-Gawl., Sainte-Anne-de-la-Pérade, Mauricie
 </t>
         </is>
       </c>
@@ -600,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89rythrone_d%27Am%C3%A9rique</t>
+          <t>Érythrone_d'Amérique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,12 +635,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Érythrone d'Amérique affectionne les sols frais, bien drainés, et riche en humus[2].
+          <t>Confusions possible</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Érythrone d'Amérique ressemble à l'ail des bois (Allium tricoccum) et c'est pourquoi on l'appelle aussi l'ail doux, bien que le goût soit très différent.
+Enfin, à la fois le nom «Ail des bois» et «Ail des ours» désigne une espèce différente en Europe, l'Allium ursinum.
 </t>
         </is>
       </c>
@@ -631,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89rythrone_d%27Am%C3%A9rique</t>
+          <t>Érythrone_d'Amérique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,15 +673,121 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La germination est lente ; il faut compter dix ans avant que la plante ne produise ses premières fleurs et graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Érythrone_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rythrone_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Érythrone d'Amérique affectionne les sols frais, bien drainés, et riche en humus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Érythrone_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rythrone_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentaires
-La feuille peut se manger bouillie comme un légume. La jeune feuille se mange crue, en salade. Le bulbe est aussi comestible, mais il doit être consommé en quantité modérée car il devient vomitif si il est consommé en trop grande quantité[2].
-Médicales
-La feuille peut être utilisée en cataplasme sur une enflure ou un ulcère pour accélérer la cicatrisation. Les Autochtones utilisaient l'érythrone d'Amérique comme antibiotique, comme contraceptif ou pour les maux de poitrine[2].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Alimentaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille peut se manger bouillie comme un légume. La jeune feuille se mange crue, en salade. Le bulbe est aussi comestible, mais il doit être consommé en quantité modérée car il devient vomitif si il est consommé en trop grande quantité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Érythrone_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rythrone_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Médicales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille peut être utilisée en cataplasme sur une enflure ou un ulcère pour accélérer la cicatrisation. Les Autochtones utilisaient l'érythrone d'Amérique comme antibiotique, comme contraceptif ou pour les maux de poitrine.
 </t>
         </is>
       </c>
